--- a/Sujit_Adhav_OrangeHRM_TestCases_V1.xlsx
+++ b/Sujit_Adhav_OrangeHRM_TestCases_V1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46D449B-86B6-4CFD-9996-0D95C0153A5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21393BCF-460F-493C-BB70-38BD0C69274B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="279">
   <si>
     <t>SNO</t>
   </si>
@@ -81,9 +81,6 @@
     <t>ESS user can add emergency contact</t>
   </si>
   <si>
-    <t>ESS user can add multiple contact</t>
-  </si>
-  <si>
     <t>ESS user can delete emergency contact</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
   </si>
   <si>
     <t>ESS user can delete immigration details</t>
-  </si>
-  <si>
-    <t>ESS uer cannot change job details</t>
   </si>
   <si>
     <t>ESS user restricted from editing the salary components</t>
@@ -380,13 +374,496 @@
     <t>ESS user should see personal details</t>
   </si>
   <si>
-    <t xml:space="preserve">1) Login as a ESS user                                                                                        2) Click on MyInfo tab                                                                                3) Click on the personal details link                                              4) Click on Edit button under personal details                                                                                                                                                                                               </t>
-  </si>
-  <si>
     <t>ESS user should able to edit personal details</t>
   </si>
   <si>
-    <t>Image</t>
+    <t>TC_MyInfo_011</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_012</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_013</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_014</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_015</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_016</t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to add emergency contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Login as an ESS user                                                                                        2) Click on MyInfo tab                                                                                3) Click on the personal details link                                              4) Click on Edit button under personal details                                                                                                                                                                                               </t>
+  </si>
+  <si>
+    <t>ESS user should able to add emergency contact details</t>
+  </si>
+  <si>
+    <t>ESS user can add multiple emergency contact</t>
+  </si>
+  <si>
+    <t>ESS user can add multiple emergency contacts</t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to add multiple emergency contacts</t>
+  </si>
+  <si>
+    <t>1) Login as an ESS user                                                                                        2) Click on MyInfo tab                                                                                3) Click on the emergency contacts link                                          4) Click on Add button under assigned emergency contacts                                                                                   4) Fill emergency contact details                                                5) Click on save button</t>
+  </si>
+  <si>
+    <t>ESS user should able to add multiple emergency contacts</t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to delete emergency contact</t>
+  </si>
+  <si>
+    <t>1) Login as an ESS user                                                                                        2) Click on MyInfo tab                                                                                3) Click on the emergency contacts link                                          4) Click on Add button under assigned emergency contacts                                                                                   5) Fill emergency contact details                                                6) Click on save button</t>
+  </si>
+  <si>
+    <t>ESS user should able to delete emergency contact</t>
+  </si>
+  <si>
+    <t>1) Login as an ESS user                                                                                        2) Click on MyInfo tab                                                                                3) Click on the emergency contacts link                                 4) Select the contact that you want to delete                                5) Click on delete button under assigned emergency contacts                                                                                   6) Fill emergency contact details                                                7) Click on save button</t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to add attachment in the emergency contact</t>
+  </si>
+  <si>
+    <t>1) Login as an ESS user                                                                                        2) Click on MyInfo tab                                                                                3) Click on the emergency contacts link                                                              4) Click on Add button under attachments                                                                                                                                7) Click on upload button</t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to upload max 1 mb attachment</t>
+  </si>
+  <si>
+    <t>ESS user should able to add attachment</t>
+  </si>
+  <si>
+    <t>ESS user should able to add maximum 1 mb attachment</t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to add dependants</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_017</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_018</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_019</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_020</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_021</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_022</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_023</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_024</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_025</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_026</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_027</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_028</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_029</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_030</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_031</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_032</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_033</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_034</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_035</t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to add multiple entries of depedants</t>
+  </si>
+  <si>
+    <t>ESS user should able to add multiple entries of dependents</t>
+  </si>
+  <si>
+    <t>ESS user should able to add dependents</t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to delete entries of dependants</t>
+  </si>
+  <si>
+    <t>1) Login as an ESS user                                                                                        2) Click on MyInfo tab                                                                                3) Click on the dependants link                                                              4) Click on Add button under assigned dependents                                                                                                                                7) Click on Add button</t>
+  </si>
+  <si>
+    <t>ESS user should able to delete entries of dependants</t>
+  </si>
+  <si>
+    <t>1) Login as an ESS user                                                                                        2) Click on MyInfo tab                                                                                3) Click on the dependants link                                                              4) Click on Add button under assigned dependents                                                                                                                                5) Click on Add button</t>
+  </si>
+  <si>
+    <t>1) Login as an ESS user                                                                                        2) Click on MyInfo tab                                                                                3) Click on the dependants link                                                              4) Click on Delete button under assigned dependents                                                                                                                                5) Click on Delete button</t>
+  </si>
+  <si>
+    <t>1) Login as an ESS user                                                                                        2) Click on MyInfo tab                                                                                3) Click on the dependants link                                                              4) Click on Add button under attachment                                                                                                                                5) Click on Add button                                                                  6) Upload the attachment                                                                7) Click on the upload button</t>
+  </si>
+  <si>
+    <t>ESS user should able to upload attachment</t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to upload attachment in dependants</t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to uplaod max 1 mb attachment</t>
+  </si>
+  <si>
+    <t>Image/PDF/Docs</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>ESS user should able to upload maximum 1 mb attachment</t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to add immigration details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Login as an ESS user                                                                                        2) Click on MyInfo tab                                                                                3) Click on the immigration link                                                              4) Click on Add button under assigned immigration records                                                                                                                               5) Click on Add button                                                                                                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify ESS user is able to add multiple immigration document entries </t>
+  </si>
+  <si>
+    <t>ESS user should able to add immigration details</t>
+  </si>
+  <si>
+    <t>ESS user should able to add multiple entries of immigration document entries</t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to delete immigration details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Login as an ESS user                                                                                        2) Click on MyInfo tab                                                                                3) Click on the immigration link                                                              4) Click on Delete button under assigned immigration records                                                                                                                               5) Click on Delete button                                                                                                                                 </t>
+  </si>
+  <si>
+    <t>ESS user should able to delete immigration details</t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to add attachment under immigration records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Login as an ESS user                                                                                        2) Click on MyInfo tab                                                                                3) Click on the immigration link                                                              4) Click on Add button under attachment                                      5) Choose file                                                                                                                            6) Click on Upload button                                                                                                                                 </t>
+  </si>
+  <si>
+    <t>ESS user should able to add attachment under immigration records</t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to add maximum 1 mb attachment</t>
+  </si>
+  <si>
+    <t>ESS uesr cannot change job details</t>
+  </si>
+  <si>
+    <t>ESS user cannot change job details</t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to change job details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Login as an ESS user                                                                 2) Click on MyInfo tab                                                                   3) Click on the job link                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESS user cannot able to change job details </t>
+  </si>
+  <si>
+    <t>Verify ESS user is restricted from editing the salary components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Login as an ESS user                                                                 2) Click on MyInfo tab                                                                   3) Click on the salary link                                                                    </t>
+  </si>
+  <si>
+    <t>ESS user should restricted from editing the salary components</t>
+  </si>
+  <si>
+    <t>Verify ESS user can only view the list of assigned supervisors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Login as an ESS user                                                                 2) Click on MyInfo tab                                                                   3) Click on the report to link                                                                                                                            </t>
+  </si>
+  <si>
+    <t>ESS user should only view the list of assigned supervisors</t>
+  </si>
+  <si>
+    <t>ESS user can add work experience</t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to add work experience</t>
+  </si>
+  <si>
+    <t>ESS user should able to add work experience</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_036</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_037</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_038</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_039</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_040</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_041</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_042</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_043</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_044</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_045</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_046</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_047</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_048</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_049</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_050</t>
+  </si>
+  <si>
+    <t>TC_MyInfo_051</t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to add multiple entries of work experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Login as an ESS user                                                                 2) Click on MyInfo tab                                                                   3) Click on the qualification link                                                            4) Click on the Add button                                                                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Login as an ESS user                                                                 2) Click on MyInfo tab                                                                   3) Click on the qualification link                                                  4) Click on the Add button                                                                                                                      </t>
+  </si>
+  <si>
+    <t>ESS user should able to add multiple entries of work experience</t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to delete work experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Login as an ESS user                                                                 2) Click on MyInfo tab                                                                   3) Click on the qualification link                                                  4) Click on the Delete button                                                                                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESS user should able to delete work experience entries </t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to add education details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Login as an ESS user                                                                 2) Click on MyInfo tab                                                                   3) Click on the qualification link                                                  4) Click on the Add button under education                                                                                                                    </t>
+  </si>
+  <si>
+    <t>ESS user should able to add education details</t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to add multiple entries of education details</t>
+  </si>
+  <si>
+    <t>ESS user should able to add multiple entries of education details</t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to delete education details</t>
+  </si>
+  <si>
+    <t>ESS user should able to delete education details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Login as an ESS user                                                                 2) Click on MyInfo tab                                                                   3) Click on the qualification link                                                  4) Click on the Delete button under education                                                                                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify ESS user is able to add skills </t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to delete skills</t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to add language</t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to delete languages</t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to add license</t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to delete license</t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to delete attachment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Login as an ESS user                                                                 2) Click on MyInfo tab                                                                   3) Click on the qualification link                                                  4) Click on the Add button under skills                                                                                                                   </t>
+  </si>
+  <si>
+    <t>ESS user should able to add skills</t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to add multiple entries of skills</t>
+  </si>
+  <si>
+    <t>ESS user should able to add multiple entries of skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Login as an ESS user                                                                 2) Click on MyInfo tab                                                                   3) Click on the qualification link                                                  4) Click on the Delete button under skills                                                                                                                   </t>
+  </si>
+  <si>
+    <t>ESS user should able to delete skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Login as an ESS user                                                                 2) Click on MyInfo tab                                                                   3) Click on the qualification link                                                  4) Click on the Delete button under languages                                                                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESS user should able to add language </t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to add multiple entries of languages</t>
+  </si>
+  <si>
+    <t>ESS user should able to add multiple entries of languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Login as an ESS user                                                                 2) Click on MyInfo tab                                                                   3) Click on the qualification link                                                  4) Click on the Add button under languages                                                                                                                   </t>
+  </si>
+  <si>
+    <t>ESS user should able to delete languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Login as an ESS user                                                                 2) Click on MyInfo tab                                                                   3) Click on the qualification link                                                  4) Click on the Add button under license                                                                                                                   </t>
+  </si>
+  <si>
+    <t>A5323424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify ESS user is able to add multiple entries of license </t>
+  </si>
+  <si>
+    <t>A5323424/A5323343/A53424342</t>
+  </si>
+  <si>
+    <t>ESS user should able to add license</t>
+  </si>
+  <si>
+    <t>ESS user should able to add multiple entries of license</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Login as an ESS user                                                                 2) Click on MyInfo tab                                                                   3) Click on the qualification link                                                  4) Click on the Delete button under license                                                                                                                   </t>
+  </si>
+  <si>
+    <t>ESS user should able to delete license</t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to add attachment</t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to maximum 1 mb attachment</t>
+  </si>
+  <si>
+    <t>ESS user should not able to upload more than 1 mb attachment</t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to upload multiple attachment</t>
+  </si>
+  <si>
+    <t>Images/PDF/Docs</t>
+  </si>
+  <si>
+    <t>ESS user should able to add multiple attachment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Login as an ESS user                                                                 2) Click on MyInfo tab                                                                   3) Click on the qualification link                                                                        4) Choose files                                                                            5) Click on the upload button                                                                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Login as an ESS user                                                                 2) Click on MyInfo tab                                                                   3) Click on the qualification link                                                                       4) Choose files                                                                            5) Click on the upload button                                                                                                                  </t>
+  </si>
+  <si>
+    <t>ESS user should able to delete attachment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Login as an ESS user                                                                 2) Click on MyInfo tab                                                                   3) Click on the qualification link                                                                    4) Check the box you wish to delete                                     6) Click on the delete button under attachment                                                                                                                </t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to add membership</t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to delete membership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Login as an ESS user                                                                 2) Click on MyInfo tab                                                                   3) Click on the memberships link                                                                    4) Click on the add button under assigned memberships                                                                                                                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESS user should able to add membership </t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to add multiple entries of memberships</t>
+  </si>
+  <si>
+    <t>ESS user should able to add multiple entries of membership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Login as an ESS user                                                                 2) Click on MyInfo tab                                                                   3) Click on the memberships link                                                                    4) Click on check box and delete button                                                                                                                                                    </t>
+  </si>
+  <si>
+    <t>ESS user should able to delete membership</t>
+  </si>
+  <si>
+    <t>Verify ESS user is able to upload attachment in membership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Login as an ESS user                                                                 2) Click on MyInfo tab                                                                   3) Click on the memberships link                                                                    4) Click on the add button under attachment                             6) Choose files                                                                                7) Click on the upload button                                                                                                                                                 </t>
+  </si>
+  <si>
+    <t>PDF</t>
   </si>
 </sst>
 </file>
@@ -449,7 +926,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -472,12 +949,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -543,6 +1046,39 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -877,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -910,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>13</v>
@@ -924,7 +1460,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>14</v>
@@ -938,7 +1474,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>15</v>
@@ -953,7 +1489,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>16</v>
@@ -967,7 +1503,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>17</v>
@@ -981,10 +1517,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D7" s="7">
         <v>1</v>
@@ -995,10 +1531,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
@@ -1010,444 +1546,518 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="7"/>
+        <v>187</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>25</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>29</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>31</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
         <v>32</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
         <v>33</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
         <v>34</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
         <v>35</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
         <v>36</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
         <v>37</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
         <v>38</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="D39" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
         <v>39</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
         <v>40</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
         <v>41</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <v>42</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
         <v>43</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
         <v>44</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="12"/>
+        <v>52</v>
+      </c>
+      <c r="D45" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="13"/>
@@ -1467,10 +2077,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8314C97F-BF27-4FA3-8A3F-81D675E1385B}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="F8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1478,17 +2088,17 @@
     <col min="1" max="1" width="16.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="51.21875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="54.88671875" style="4" customWidth="1"/>
     <col min="5" max="5" width="64.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="53.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="50.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.33203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" style="4" customWidth="1"/>
     <col min="11" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1522,393 +2132,1733 @@
     </row>
     <row r="2" spans="1:10" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I2" s="8" t="s">
         <v>96</v>
       </c>
+      <c r="I2" s="24" t="s">
+        <v>94</v>
+      </c>
       <c r="J2" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G6" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>109</v>
-      </c>
       <c r="I6" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>110</v>
-      </c>
       <c r="I7" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="F10" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="D17" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J27" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J28" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J29" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J30" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J31" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J32" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J33" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J34" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="I35" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J35" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="I36" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J36" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="I37" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J37" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="I38" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J38" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="I39" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J39" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H40" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="I40" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J40" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="I41" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J41" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="H42" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="I42" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J42" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="H43" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="I43" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J43" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="I44" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J44" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="H45" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="I45" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J45" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="H46" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="I46" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J46" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="78" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="H47" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="I47" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J47" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="78" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H48" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="I48" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J48" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="27"/>
+      <c r="D49" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H49" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="I49" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J49" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="78" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="27"/>
+      <c r="D50" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H50" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="I50" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J50" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="62.4" x14ac:dyDescent="0.35">
+      <c r="A51" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="27"/>
+      <c r="D51" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H51" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="I51" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J51" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="99.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="27"/>
+      <c r="D52" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="H52" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="I52" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J52" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="31"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="31"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="31"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Sujit_Adhav_OrangeHRM_TestCases_V1.xlsx
+++ b/Sujit_Adhav_OrangeHRM_TestCases_V1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21393BCF-460F-493C-BB70-38BD0C69274B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C1D9F7-39C1-46B3-82F3-77FF7F0D8F89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="279">
   <si>
     <t>SNO</t>
   </si>
@@ -980,7 +980,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1080,6 +1080,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1413,7 +1416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
@@ -2079,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8314C97F-BF27-4FA3-8A3F-81D675E1385B}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3639,7 +3642,9 @@
       <c r="B49" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="27"/>
+      <c r="C49" s="27" t="s">
+        <v>63</v>
+      </c>
       <c r="D49" s="23" t="s">
         <v>49</v>
       </c>
@@ -3669,7 +3674,9 @@
       <c r="B50" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="27"/>
+      <c r="C50" s="27" t="s">
+        <v>63</v>
+      </c>
       <c r="D50" s="23" t="s">
         <v>50</v>
       </c>
@@ -3692,15 +3699,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="62.4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>214</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="6" t="s">
+      <c r="C51" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="23" t="s">
         <v>51</v>
       </c>
       <c r="E51" s="26" t="s">
@@ -3722,15 +3731,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="99.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="12" t="s">
+      <c r="C52" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="34" t="s">
         <v>52</v>
       </c>
       <c r="E52" s="26" t="s">

--- a/Sujit_Adhav_OrangeHRM_TestCases_V1.xlsx
+++ b/Sujit_Adhav_OrangeHRM_TestCases_V1.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C1D9F7-39C1-46B3-82F3-77FF7F0D8F89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC855FB6-5537-44AC-8047-857EAB3C1233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
     <sheet name="Test Cases" sheetId="2" r:id="rId2"/>
+    <sheet name="BugReport" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="307">
   <si>
     <t>SNO</t>
   </si>
@@ -365,9 +366,6 @@
     <t xml:space="preserve">1) Login as a ESS user                                                                                        2) Click on MyInfo tab                                                                                3) Click on the sample photo under Paul Collings                                                         4) Click on Choose files                                                                                                                                             </t>
   </si>
   <si>
-    <t>exe file also uploading</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) Login as a ESS user                                                                                        2) Click on MyInfo tab                                                                                3) Click on the personal details link                                                                                                                                                                                                      </t>
   </si>
   <si>
@@ -864,13 +862,108 @@
   </si>
   <si>
     <t>PDF</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>Bug ID</t>
+  </si>
+  <si>
+    <t>ModuleName</t>
+  </si>
+  <si>
+    <t>Build No</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>Steps to replicate bug</t>
+  </si>
+  <si>
+    <t>Screenshot</t>
+  </si>
+  <si>
+    <t>Sevirity</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Reported By</t>
+  </si>
+  <si>
+    <t>Assigned to</t>
+  </si>
+  <si>
+    <t>Resolution</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Fixed Date</t>
+  </si>
+  <si>
+    <t>ORHRM_001</t>
+  </si>
+  <si>
+    <t>Dashboard is displayed after login is successful instead of MyInfo page.</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>InProgress</t>
+  </si>
+  <si>
+    <t>ORHRM_002</t>
+  </si>
+  <si>
+    <t>1) Login to OrangeHRM as ESS user
+2) Click on MyInfo tab
+3) Click on the photograph at corner of the screen
+4) Click "Browse" and then select a photograph from the relevant path
+5) Click "Upload" once you have selected the picture</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>The invalid file format error message for invalid photographs is displaying after the upload is complete.</t>
+  </si>
+  <si>
+    <t>1) Launch browser
+2) Open URL "https://opensource-demo.orangehrmlive.com"
+3) Provide valid ESS username
+4) Provide valid ESS password
+5) Click on Login button</t>
+  </si>
+  <si>
+    <t>Sujit</t>
+  </si>
+  <si>
+    <t>Developer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -904,6 +997,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -980,7 +1084,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1083,6 +1187,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1140,6 +1274,98 @@
         <a:xfrm>
           <a:off x="16649700" y="9677400"/>
           <a:ext cx="2565097" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1613119</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1379220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B182D77-4AD7-4F64-AFFB-B72412C66543}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9326880" y="716280"/>
+          <a:ext cx="1567399" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28566</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1659348</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1165860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E45F7C5E-F4E2-4366-A44E-79355E0477C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="-1" t="12555" r="31595" b="39614"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9309726" y="2194560"/>
+          <a:ext cx="1630782" cy="998220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1566,7 +1792,7 @@
         <v>56</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -1720,7 +1946,7 @@
         <v>59</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D21" s="7">
         <v>1</v>
@@ -2082,8 +2308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8314C97F-BF27-4FA3-8A3F-81D675E1385B}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="F6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2377,11 +2603,11 @@
         <v>111</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="8" t="s">
-        <v>112</v>
+      <c r="I9" s="38" t="s">
+        <v>303</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>95</v>
@@ -2404,13 +2630,13 @@
         <v>87</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>105</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>98</v>
@@ -2436,13 +2662,13 @@
         <v>89</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>105</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>98</v>
@@ -2453,7 +2679,7 @@
     </row>
     <row r="12" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>65</v>
@@ -2465,16 +2691,16 @@
         <v>18</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>105</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>98</v>
@@ -2485,7 +2711,7 @@
     </row>
     <row r="13" spans="1:10" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>65</v>
@@ -2494,19 +2720,19 @@
         <v>56</v>
       </c>
       <c r="D13" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>127</v>
-      </c>
       <c r="F13" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>105</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>98</v>
@@ -2517,7 +2743,7 @@
     </row>
     <row r="14" spans="1:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>65</v>
@@ -2529,16 +2755,16 @@
         <v>19</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>105</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>98</v>
@@ -2549,7 +2775,7 @@
     </row>
     <row r="15" spans="1:10" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>65</v>
@@ -2561,16 +2787,16 @@
         <v>20</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>135</v>
-      </c>
       <c r="G15" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>98</v>
@@ -2581,7 +2807,7 @@
     </row>
     <row r="16" spans="1:10" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>65</v>
@@ -2593,16 +2819,16 @@
         <v>20</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>98</v>
@@ -2613,7 +2839,7 @@
     </row>
     <row r="17" spans="1:10" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>65</v>
@@ -2625,16 +2851,16 @@
         <v>21</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>105</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>98</v>
@@ -2645,7 +2871,7 @@
     </row>
     <row r="18" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>65</v>
@@ -2657,16 +2883,16 @@
         <v>22</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>105</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I18" s="26" t="s">
         <v>98</v>
@@ -2677,7 +2903,7 @@
     </row>
     <row r="19" spans="1:10" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>65</v>
@@ -2689,16 +2915,16 @@
         <v>23</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>105</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I19" s="26" t="s">
         <v>98</v>
@@ -2709,7 +2935,7 @@
     </row>
     <row r="20" spans="1:10" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>65</v>
@@ -2721,16 +2947,16 @@
         <v>24</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F20" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="H20" s="26" t="s">
         <v>167</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>168</v>
       </c>
       <c r="I20" s="26" t="s">
         <v>98</v>
@@ -2741,7 +2967,7 @@
     </row>
     <row r="21" spans="1:10" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>65</v>
@@ -2753,16 +2979,16 @@
         <v>24</v>
       </c>
       <c r="E21" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>171</v>
-      </c>
       <c r="H21" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I21" s="26" t="s">
         <v>98</v>
@@ -2773,7 +2999,7 @@
     </row>
     <row r="22" spans="1:10" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>65</v>
@@ -2785,16 +3011,16 @@
         <v>25</v>
       </c>
       <c r="E22" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>175</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>105</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I22" s="26" t="s">
         <v>98</v>
@@ -2805,7 +3031,7 @@
     </row>
     <row r="23" spans="1:10" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>65</v>
@@ -2817,16 +3043,16 @@
         <v>26</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>105</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I23" s="26" t="s">
         <v>98</v>
@@ -2837,7 +3063,7 @@
     </row>
     <row r="24" spans="1:10" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>65</v>
@@ -2849,16 +3075,16 @@
         <v>28</v>
       </c>
       <c r="E24" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>180</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>105</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I24" s="26" t="s">
         <v>98</v>
@@ -2869,7 +3095,7 @@
     </row>
     <row r="25" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>65</v>
@@ -2881,16 +3107,16 @@
         <v>27</v>
       </c>
       <c r="E25" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="G25" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="H25" s="26" t="s">
         <v>183</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>184</v>
       </c>
       <c r="I25" s="26" t="s">
         <v>98</v>
@@ -2901,7 +3127,7 @@
     </row>
     <row r="26" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>65</v>
@@ -2913,16 +3139,16 @@
         <v>27</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I26" s="26" t="s">
         <v>98</v>
@@ -2933,7 +3159,7 @@
     </row>
     <row r="27" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>65</v>
@@ -2942,19 +3168,19 @@
         <v>59</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E27" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="26" t="s">
         <v>188</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>189</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>105</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I27" s="26" t="s">
         <v>98</v>
@@ -2965,7 +3191,7 @@
     </row>
     <row r="28" spans="1:10" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>65</v>
@@ -2977,16 +3203,16 @@
         <v>29</v>
       </c>
       <c r="E28" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F28" s="26" t="s">
         <v>191</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>192</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>105</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I28" s="26" t="s">
         <v>98</v>
@@ -2997,7 +3223,7 @@
     </row>
     <row r="29" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>65</v>
@@ -3009,16 +3235,16 @@
         <v>30</v>
       </c>
       <c r="E29" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="26" t="s">
         <v>194</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>195</v>
       </c>
       <c r="G29" s="28" t="s">
         <v>105</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I29" s="26" t="s">
         <v>98</v>
@@ -3029,7 +3255,7 @@
     </row>
     <row r="30" spans="1:10" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>65</v>
@@ -3038,19 +3264,19 @@
         <v>62</v>
       </c>
       <c r="D30" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E30" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="E30" s="26" t="s">
-        <v>198</v>
-      </c>
       <c r="F30" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>105</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I30" s="26" t="s">
         <v>98</v>
@@ -3061,7 +3287,7 @@
     </row>
     <row r="31" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>65</v>
@@ -3073,16 +3299,16 @@
         <v>32</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G31" s="28" t="s">
         <v>105</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I31" s="26" t="s">
         <v>98</v>
@@ -3093,7 +3319,7 @@
     </row>
     <row r="32" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>65</v>
@@ -3105,16 +3331,16 @@
         <v>33</v>
       </c>
       <c r="E32" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="F32" s="26" t="s">
         <v>220</v>
-      </c>
-      <c r="F32" s="26" t="s">
-        <v>221</v>
       </c>
       <c r="G32" s="28" t="s">
         <v>105</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I32" s="26" t="s">
         <v>98</v>
@@ -3125,7 +3351,7 @@
     </row>
     <row r="33" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>65</v>
@@ -3137,16 +3363,16 @@
         <v>34</v>
       </c>
       <c r="E33" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="F33" s="26" t="s">
         <v>223</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>224</v>
       </c>
       <c r="G33" s="28" t="s">
         <v>105</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I33" s="26" t="s">
         <v>98</v>
@@ -3157,7 +3383,7 @@
     </row>
     <row r="34" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>65</v>
@@ -3169,16 +3395,16 @@
         <v>35</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>105</v>
       </c>
       <c r="H34" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I34" s="26" t="s">
         <v>98</v>
@@ -3189,7 +3415,7 @@
     </row>
     <row r="35" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>65</v>
@@ -3201,16 +3427,16 @@
         <v>36</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G35" s="28" t="s">
         <v>105</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I35" s="26" t="s">
         <v>98</v>
@@ -3221,7 +3447,7 @@
     </row>
     <row r="36" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>65</v>
@@ -3233,16 +3459,16 @@
         <v>37</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G36" s="28" t="s">
         <v>105</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I36" s="26" t="s">
         <v>98</v>
@@ -3253,7 +3479,7 @@
     </row>
     <row r="37" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>65</v>
@@ -3265,16 +3491,16 @@
         <v>38</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G37" s="28" t="s">
         <v>105</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I37" s="26" t="s">
         <v>98</v>
@@ -3285,7 +3511,7 @@
     </row>
     <row r="38" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>65</v>
@@ -3297,16 +3523,16 @@
         <v>39</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G38" s="28" t="s">
         <v>105</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I38" s="26" t="s">
         <v>98</v>
@@ -3317,7 +3543,7 @@
     </row>
     <row r="39" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>65</v>
@@ -3329,16 +3555,16 @@
         <v>40</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G39" s="28" t="s">
         <v>105</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I39" s="26" t="s">
         <v>98</v>
@@ -3349,7 +3575,7 @@
     </row>
     <row r="40" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>65</v>
@@ -3361,16 +3587,16 @@
         <v>41</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G40" s="28" t="s">
         <v>105</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I40" s="26" t="s">
         <v>98</v>
@@ -3381,7 +3607,7 @@
     </row>
     <row r="41" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>65</v>
@@ -3393,16 +3619,16 @@
         <v>42</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>105</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I41" s="26" t="s">
         <v>98</v>
@@ -3413,7 +3639,7 @@
     </row>
     <row r="42" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>65</v>
@@ -3425,16 +3651,16 @@
         <v>43</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F42" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="G42" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="G42" s="28" t="s">
-        <v>251</v>
-      </c>
       <c r="H42" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I42" s="26" t="s">
         <v>98</v>
@@ -3445,7 +3671,7 @@
     </row>
     <row r="43" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>65</v>
@@ -3457,16 +3683,16 @@
         <v>44</v>
       </c>
       <c r="E43" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="G43" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="F43" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="G43" s="28" t="s">
-        <v>253</v>
-      </c>
       <c r="H43" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I43" s="26" t="s">
         <v>98</v>
@@ -3477,7 +3703,7 @@
     </row>
     <row r="44" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>65</v>
@@ -3489,16 +3715,16 @@
         <v>45</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F44" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G44" s="28" t="s">
         <v>105</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I44" s="26" t="s">
         <v>98</v>
@@ -3509,7 +3735,7 @@
     </row>
     <row r="45" spans="1:10" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>65</v>
@@ -3521,16 +3747,16 @@
         <v>46</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I45" s="26" t="s">
         <v>98</v>
@@ -3541,7 +3767,7 @@
     </row>
     <row r="46" spans="1:10" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>65</v>
@@ -3553,16 +3779,16 @@
         <v>46</v>
       </c>
       <c r="E46" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="H46" s="26" t="s">
         <v>259</v>
-      </c>
-      <c r="F46" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="G46" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="H46" s="26" t="s">
-        <v>260</v>
       </c>
       <c r="I46" s="26" t="s">
         <v>98</v>
@@ -3573,7 +3799,7 @@
     </row>
     <row r="47" spans="1:10" ht="78" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>65</v>
@@ -3585,16 +3811,16 @@
         <v>47</v>
       </c>
       <c r="E47" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="G47" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="F47" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="G47" s="28" t="s">
+      <c r="H47" s="26" t="s">
         <v>262</v>
-      </c>
-      <c r="H47" s="26" t="s">
-        <v>263</v>
       </c>
       <c r="I47" s="26" t="s">
         <v>98</v>
@@ -3605,7 +3831,7 @@
     </row>
     <row r="48" spans="1:10" ht="78" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>65</v>
@@ -3617,16 +3843,16 @@
         <v>48</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F48" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G48" s="28" t="s">
         <v>105</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I48" s="26" t="s">
         <v>98</v>
@@ -3637,7 +3863,7 @@
     </row>
     <row r="49" spans="1:10" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>65</v>
@@ -3649,16 +3875,16 @@
         <v>49</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G49" s="28" t="s">
         <v>105</v>
       </c>
       <c r="H49" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I49" s="26" t="s">
         <v>98</v>
@@ -3669,7 +3895,7 @@
     </row>
     <row r="50" spans="1:10" ht="78" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>65</v>
@@ -3681,16 +3907,16 @@
         <v>50</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>105</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I50" s="26" t="s">
         <v>98</v>
@@ -3701,7 +3927,7 @@
     </row>
     <row r="51" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>65</v>
@@ -3713,16 +3939,16 @@
         <v>51</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G51" s="28" t="s">
         <v>105</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I51" s="26" t="s">
         <v>98</v>
@@ -3733,7 +3959,7 @@
     </row>
     <row r="52" spans="1:10" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>65</v>
@@ -3745,16 +3971,16 @@
         <v>52</v>
       </c>
       <c r="E52" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="F52" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="F52" s="26" t="s">
+      <c r="G52" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="G52" s="28" t="s">
-        <v>278</v>
-      </c>
       <c r="H52" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I52" s="26" t="s">
         <v>98</v>
@@ -3877,4 +4103,182 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBA5212-969B-46DC-8489-29AE8397F3CA}">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="39.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+    </row>
+    <row r="2" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="36">
+        <v>1</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="N3" s="37"/>
+    </row>
+    <row r="4" spans="1:14" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="36">
+        <v>1</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="N4" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>